--- a/optimizer/src/main/resources/dataSheets/testData_Optimizer.xlsx
+++ b/optimizer/src/main/resources/dataSheets/testData_Optimizer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="2880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="2475"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="22" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>deviceName</t>
   </si>
@@ -482,7 +482,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
